--- a/AppSecurityTestingCheatSheet.xlsx
+++ b/AppSecurityTestingCheatSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Google Drive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/MobileSecurity/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="460" windowWidth="21040" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="17360" yWindow="460" windowWidth="21040" windowHeight="21080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="App Information" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="426">
   <si>
     <t>Protection Profile Requirement ID</t>
   </si>
@@ -2398,18 +2398,6 @@
   </si>
   <si>
     <t>iOS pinning is performed through a NSURLConnectionDelegate. The delegate must implement connection:canAuthenticateAgainstProtectionSpace: and connection:didReceiveAuthenticationChallenge:. Within connection:didReceiveAuthenticationChallenge:, the delegate must call SecTrustEvaluate to perform customary X509 checks.</t>
-  </si>
-  <si>
-    <t>Skittls</t>
-  </si>
-  <si>
-    <t>Network Analyzer</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Codesign</t>
   </si>
   <si>
     <t>GitHub: https://github.com/dmayer/idb 
@@ -3456,7 +3444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3587,7 +3575,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5036,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5061,7 +5049,7 @@
         <v>179</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5240,7 +5228,7 @@
         <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5315,365 +5303,380 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>257</v>
+        <v>205</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>261</v>
+        <v>207</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>298</v>
+        <v>322</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>300</v>
+        <v>326</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>230</v>
+        <v>328</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -5684,140 +5687,100 @@
         <v>394</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>286</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="B94" s="2" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5851,64 +5814,64 @@
     <hyperlink ref="A29" r:id="rId27"/>
     <hyperlink ref="A30" r:id="rId28"/>
     <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="A38" r:id="rId30"/>
-    <hyperlink ref="A39" r:id="rId31"/>
-    <hyperlink ref="A40" r:id="rId32"/>
-    <hyperlink ref="A41" r:id="rId33"/>
-    <hyperlink ref="A42" r:id="rId34"/>
-    <hyperlink ref="A43" r:id="rId35"/>
-    <hyperlink ref="A44" r:id="rId36"/>
-    <hyperlink ref="A45" r:id="rId37"/>
-    <hyperlink ref="A46" r:id="rId38"/>
-    <hyperlink ref="A47" r:id="rId39"/>
-    <hyperlink ref="A48" r:id="rId40"/>
-    <hyperlink ref="A50" r:id="rId41"/>
-    <hyperlink ref="A52" r:id="rId42"/>
-    <hyperlink ref="A53" r:id="rId43"/>
-    <hyperlink ref="A54" r:id="rId44"/>
-    <hyperlink ref="A55" r:id="rId45"/>
-    <hyperlink ref="A56" r:id="rId46"/>
-    <hyperlink ref="A37" r:id="rId47"/>
-    <hyperlink ref="A57" r:id="rId48"/>
-    <hyperlink ref="A58" r:id="rId49"/>
-    <hyperlink ref="A59" r:id="rId50"/>
-    <hyperlink ref="A60" r:id="rId51"/>
-    <hyperlink ref="A61" r:id="rId52"/>
-    <hyperlink ref="A62" r:id="rId53"/>
-    <hyperlink ref="A63" r:id="rId54"/>
-    <hyperlink ref="A64" r:id="rId55"/>
-    <hyperlink ref="A65" r:id="rId56"/>
-    <hyperlink ref="A66" r:id="rId57"/>
-    <hyperlink ref="A67" r:id="rId58"/>
-    <hyperlink ref="A68" r:id="rId59" location="documentation/Darwin/Reference/ManPages/man8/syslogd.8.html"/>
-    <hyperlink ref="A69" r:id="rId60"/>
-    <hyperlink ref="A70" r:id="rId61" location="documentation/Darwin/Reference/ManPages/man8/sysctl.8.html"/>
-    <hyperlink ref="A71" r:id="rId62"/>
-    <hyperlink ref="A72" r:id="rId63"/>
-    <hyperlink ref="A73" r:id="rId64"/>
-    <hyperlink ref="A74" r:id="rId65"/>
-    <hyperlink ref="A75" r:id="rId66"/>
-    <hyperlink ref="A76" r:id="rId67"/>
-    <hyperlink ref="A77" r:id="rId68"/>
-    <hyperlink ref="A79" r:id="rId69"/>
-    <hyperlink ref="A83" r:id="rId70"/>
-    <hyperlink ref="A84" r:id="rId71"/>
-    <hyperlink ref="A85" r:id="rId72"/>
-    <hyperlink ref="A80" r:id="rId73"/>
-    <hyperlink ref="A81" r:id="rId74"/>
-    <hyperlink ref="A82" r:id="rId75"/>
-    <hyperlink ref="A78" r:id="rId76"/>
-    <hyperlink ref="A86" r:id="rId77"/>
-    <hyperlink ref="A87" r:id="rId78"/>
-    <hyperlink ref="A88" r:id="rId79"/>
-    <hyperlink ref="A89" r:id="rId80"/>
-    <hyperlink ref="A90" r:id="rId81"/>
-    <hyperlink ref="A91" r:id="rId82"/>
-    <hyperlink ref="A92" r:id="rId83"/>
-    <hyperlink ref="A93" r:id="rId84"/>
-    <hyperlink ref="A94" r:id="rId85"/>
-    <hyperlink ref="A95" r:id="rId86"/>
-    <hyperlink ref="A96" r:id="rId87"/>
+    <hyperlink ref="A33" r:id="rId30"/>
+    <hyperlink ref="A34" r:id="rId31"/>
+    <hyperlink ref="A35" r:id="rId32"/>
+    <hyperlink ref="A36" r:id="rId33"/>
+    <hyperlink ref="A37" r:id="rId34"/>
+    <hyperlink ref="A38" r:id="rId35"/>
+    <hyperlink ref="A39" r:id="rId36"/>
+    <hyperlink ref="A40" r:id="rId37"/>
+    <hyperlink ref="A41" r:id="rId38"/>
+    <hyperlink ref="A42" r:id="rId39"/>
+    <hyperlink ref="A43" r:id="rId40"/>
+    <hyperlink ref="A45" r:id="rId41"/>
+    <hyperlink ref="A47" r:id="rId42"/>
+    <hyperlink ref="A48" r:id="rId43"/>
+    <hyperlink ref="A49" r:id="rId44"/>
+    <hyperlink ref="A50" r:id="rId45"/>
+    <hyperlink ref="A51" r:id="rId46"/>
+    <hyperlink ref="A32" r:id="rId47"/>
+    <hyperlink ref="A52" r:id="rId48"/>
+    <hyperlink ref="A53" r:id="rId49"/>
+    <hyperlink ref="A54" r:id="rId50"/>
+    <hyperlink ref="A55" r:id="rId51"/>
+    <hyperlink ref="A56" r:id="rId52"/>
+    <hyperlink ref="A57" r:id="rId53"/>
+    <hyperlink ref="A58" r:id="rId54"/>
+    <hyperlink ref="A59" r:id="rId55"/>
+    <hyperlink ref="A60" r:id="rId56"/>
+    <hyperlink ref="A61" r:id="rId57"/>
+    <hyperlink ref="A62" r:id="rId58"/>
+    <hyperlink ref="A63" r:id="rId59" location="documentation/Darwin/Reference/ManPages/man8/syslogd.8.html"/>
+    <hyperlink ref="A64" r:id="rId60"/>
+    <hyperlink ref="A65" r:id="rId61" location="documentation/Darwin/Reference/ManPages/man8/sysctl.8.html"/>
+    <hyperlink ref="A66" r:id="rId62"/>
+    <hyperlink ref="A67" r:id="rId63"/>
+    <hyperlink ref="A68" r:id="rId64"/>
+    <hyperlink ref="A69" r:id="rId65"/>
+    <hyperlink ref="A70" r:id="rId66"/>
+    <hyperlink ref="A71" r:id="rId67"/>
+    <hyperlink ref="A72" r:id="rId68"/>
+    <hyperlink ref="A74" r:id="rId69"/>
+    <hyperlink ref="A78" r:id="rId70"/>
+    <hyperlink ref="A79" r:id="rId71"/>
+    <hyperlink ref="A80" r:id="rId72"/>
+    <hyperlink ref="A75" r:id="rId73"/>
+    <hyperlink ref="A76" r:id="rId74"/>
+    <hyperlink ref="A77" r:id="rId75"/>
+    <hyperlink ref="A73" r:id="rId76"/>
+    <hyperlink ref="A81" r:id="rId77"/>
+    <hyperlink ref="A82" r:id="rId78"/>
+    <hyperlink ref="A83" r:id="rId79"/>
+    <hyperlink ref="A84" r:id="rId80"/>
+    <hyperlink ref="A85" r:id="rId81"/>
+    <hyperlink ref="A86" r:id="rId82"/>
+    <hyperlink ref="A87" r:id="rId83"/>
+    <hyperlink ref="A88" r:id="rId84"/>
+    <hyperlink ref="A89" r:id="rId85"/>
+    <hyperlink ref="A90" r:id="rId86"/>
+    <hyperlink ref="A91" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5919,7 +5882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -5942,169 +5905,169 @@
         <v>179</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -6112,15 +6075,15 @@
         <v>208</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6149,34 +6112,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6184,199 +6147,199 @@
         <v>213</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
